--- a/modules/timesheets/uploads/attendance/attendance_2025-08.xlsx
+++ b/modules/timesheets/uploads/attendance/attendance_2025-08.xlsx
@@ -59,7 +59,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +75,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +134,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -142,6 +148,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,7 +172,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -375,169 +385,866 @@
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Aman Khan </t>
+        </is>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Amir Siddiqui</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="Y2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="Z2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AA2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AB2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AC2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AD2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AF2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="AG2" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Aquib Imtiyaz</t>
+        </is>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Ashish Kumar</t>
+        </is>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Asif Jamal</t>
+        </is>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Ayaz Ahmad</t>
+        </is>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Dilshad Khan</t>
+        </is>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>faizan ahmad</t>
+        </is>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Imran Zahir Khan</t>
+        </is>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Kamran Mustafa </t>
+        </is>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Manish  Verma</t>
+        </is>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Mohd  Faiz</t>
+        </is>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Mohd Gulfam</t>
+        </is>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Mohd  Ayan</t>
+        </is>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Mohd Misbah</t>
+        </is>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Mohd Azeem Khan</t>
+        </is>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Muntaj Ahmad</t>
+        </is>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Musheer Belal</t>
+        </is>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Sameer Ahmed</t>
+        </is>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Shafique Siddiqui</t>
+        </is>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="inlineStr">
+        <is>
+          <t>W:0.04</t>
+        </is>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/modules/timesheets/uploads/attendance/attendance_2025-08.xlsx
+++ b/modules/timesheets/uploads/attendance/attendance_2025-08.xlsx
@@ -134,7 +134,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,7 +151,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,7 +180,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -211,8 +219,7 @@
     <col collapsed="false" hidden="false" max="30" min="30" style="0" customWidth="true" width="10"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" customWidth="true" width="10"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" customWidth="true" width="10"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" customWidth="true" width="10"/>
-    <col collapsed="false" hidden="false" max="1024" min="34" style="0" customWidth="false" width="11.5"/>
+    <col collapsed="false" hidden="false" max="1024" min="33" style="0" customWidth="false" width="11.5"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -228,157 +235,152 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Fri 01</t>
+          <t>Mon 01</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Sat 02</t>
+          <t>Tue 02</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Sun 03</t>
+          <t>Wed 03</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Mon 04</t>
+          <t>Thu 04</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Tue 05</t>
+          <t>Fri 05</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Wed 06</t>
+          <t>Sat 06</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Thu 07</t>
+          <t>Sun 07</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Fri 08</t>
+          <t>Mon 08</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Sat 09</t>
+          <t>Tue 09</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Sun 10</t>
+          <t>Wed 10</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Mon 11</t>
+          <t>Thu 11</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>Tue 12</t>
+          <t>Fri 12</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>Wed 13</t>
+          <t>Sat 13</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>Thu 14</t>
+          <t>Sun 14</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Fri 15</t>
+          <t>Mon 15</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Sat 16</t>
+          <t>Tue 16</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Sun 17</t>
+          <t>Wed 17</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>Mon 18</t>
+          <t>Thu 18</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Tue 19</t>
+          <t>Fri 19</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Wed 20</t>
+          <t>Sat 20</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>Thu 21</t>
+          <t>Sun 21</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>Fri 22</t>
+          <t>Mon 22</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>Sat 23</t>
+          <t>Tue 23</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>Sun 24</t>
+          <t>Wed 24</t>
         </is>
       </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
-          <t>Mon 25</t>
+          <t>Thu 25</t>
         </is>
       </c>
       <c r="AB1" s="2" t="inlineStr">
         <is>
-          <t>Tue 26</t>
+          <t>Fri 26</t>
         </is>
       </c>
       <c r="AC1" s="2" t="inlineStr">
         <is>
-          <t>Wed 27</t>
+          <t>Sat 27</t>
         </is>
       </c>
       <c r="AD1" s="2" t="inlineStr">
         <is>
-          <t>Thu 28</t>
+          <t>Sun 28</t>
         </is>
       </c>
       <c r="AE1" s="2" t="inlineStr">
         <is>
-          <t>Fri 29</t>
+          <t>Mon 29</t>
         </is>
       </c>
       <c r="AF1" s="2" t="inlineStr">
         <is>
-          <t>Sat 30</t>
-        </is>
-      </c>
-      <c r="AG1" s="2" t="inlineStr">
-        <is>
-          <t>Sun 31</t>
+          <t>Tue 30</t>
         </is>
       </c>
     </row>
@@ -423,50 +425,58 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="AG2" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Amir Siddiqui</t>
         </is>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="inlineStr">
+        <is>
+          <t>W:6.67</t>
+        </is>
+      </c>
+      <c r="AG3" s="6" t="inlineStr">
+        <is>
+          <t>W:7.68</t>
+        </is>
+      </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -509,50 +519,50 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+      <c r="AG4" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Ashish Kumar</t>
         </is>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="6"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -595,50 +605,58 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
+      <c r="AG6" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Ayaz Ahmad</t>
         </is>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5" t="inlineStr">
+        <is>
+          <t>W:7.29</t>
+        </is>
+      </c>
+      <c r="AG7" s="6" t="inlineStr">
+        <is>
+          <t>W:7.46</t>
+        </is>
+      </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -681,50 +699,50 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="AG8" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>faizan ahmad</t>
         </is>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="6"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -767,50 +785,54 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
+      <c r="AG10" s="4" t="inlineStr">
+        <is>
+          <t>W:7.86</t>
+        </is>
+      </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Kamran Mustafa </t>
         </is>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="6"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -853,50 +875,50 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
+      <c r="AG12" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Mohd  Faiz</t>
         </is>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="6"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -938,51 +960,59 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
+      <c r="AF14" s="3" t="inlineStr">
+        <is>
+          <t>W:7.5</t>
+        </is>
+      </c>
+      <c r="AG14" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Mohd  Ayan</t>
         </is>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="6" t="inlineStr">
+        <is>
+          <t>W:6.8</t>
+        </is>
+      </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -1025,60 +1055,60 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
+      <c r="AG16" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Mohd Azeem Khan</t>
-        </is>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Mohd Fazal</t>
+        </is>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="6"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Muntaj Ahmad</t>
+          <t>Mohd Azeem Khan</t>
         </is>
       </c>
       <c r="C18" s="3"/>
@@ -1111,60 +1141,64 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
+      <c r="AG18" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Musheer Belal</t>
-        </is>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Muntaj Ahmad</t>
+        </is>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="6" t="inlineStr">
+        <is>
+          <t>W:7.91</t>
+        </is>
+      </c>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Sameer Ahmed</t>
+          <t>Musheer Belal</t>
         </is>
       </c>
       <c r="C20" s="3"/>
@@ -1197,54 +1231,101 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
+      <c r="AG20" s="4"/>
     </row>
     <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Sameer Ahmed</t>
+        </is>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="inlineStr">
+        <is>
+          <t>W:7.53</t>
+        </is>
+      </c>
+      <c r="AG21" s="6"/>
+    </row>
+    <row collapsed="" customFormat="false" customHeight="1" hidden="" ht="25" outlineLevel="0" r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>Shafique Siddiqui</t>
         </is>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="inlineStr">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3" t="inlineStr">
         <is>
           <t>W:0.04</t>
         </is>
       </c>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
